--- a/battleworld/Excel/SkillLib_技能库.xlsx
+++ b/battleworld/Excel/SkillLib_技能库.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>未知作者</author>
   </authors>
   <commentList>
     <comment ref="F3" authorId="0">
@@ -2216,7 +2216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2229,7 +2229,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2237,32 +2237,56 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2337,6 +2361,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2344,8 +2474,8 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2435,10 +2565,10 @@
       <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2452,922 +2582,976 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="H5" s="8" t="n">
+        <v>337393</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>337392</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="H6" s="8" t="n">
+        <v>325617</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>325616</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="E7" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="H7" s="8" t="n">
+        <v>325629</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>325630</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="E8" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="E8" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="H9" s="8" t="n">
+        <v>325621</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>325625</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="H10" s="8" t="n">
+        <v>325628</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>325622</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="H11" s="8" t="n">
+        <v>325627</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>325624</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="H12" s="8" t="n">
+        <v>325607</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>325611</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="H13" s="8" t="n">
+        <v>325618</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <v>325609</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="H14" s="8" t="n">
+        <v>325599</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>325608</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="E15" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="E15" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="E16" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="E16" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="E17" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="E17" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C19" s="6" t="n">
+      <c r="B19" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="E19" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B24" s="7" t="n">
+      <c r="A24" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E25" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="E25" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="13" t="n">
         <v>27</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E26" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="E26" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="13" t="n">
         <v>28</v>
       </c>
-      <c r="C27" s="8" t="n">
+      <c r="C27" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D27" s="8" t="n">
+      <c r="D27" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E27" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="E27" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E28" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="E28" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+      <c r="A29" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E29" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="E29" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+      <c r="A30" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="13" t="n">
         <v>31</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="13" t="n">
         <v>33</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="D32" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="E32" s="8" t="n">
+      <c r="E32" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="13" t="n">
         <v>34</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="E33" s="8" t="n">
+      <c r="E33" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="13" t="n">
         <v>35</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="E34" s="8" t="n">
+      <c r="E34" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="n">
+      <c r="A35" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="C35" s="10" t="n">
+      <c r="C35" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="E35" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="E35" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
+      <c r="A36" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="16" t="n">
         <v>38</v>
       </c>
-      <c r="C36" s="10" t="n">
+      <c r="C36" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="E36" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="E36" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
+      <c r="A37" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="16" t="n">
         <v>39</v>
       </c>
-      <c r="C37" s="10" t="n">
+      <c r="C37" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="E37" s="10" t="n">
+      <c r="E37" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="F37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="n">
+      <c r="A38" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="C38" s="10" t="n">
+      <c r="C38" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="E38" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="10" t="s">
+      <c r="E38" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="n">
+      <c r="A39" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="16" t="n">
         <v>41</v>
       </c>
-      <c r="C39" s="10" t="n">
+      <c r="C39" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="E39" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="10" t="s">
+      <c r="E39" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="n">
+      <c r="A40" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="C40" s="10" t="n">
+      <c r="C40" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D40" s="10" t="n">
+      <c r="D40" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="E40" s="10" t="n">
+      <c r="E40" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="n">
+      <c r="A41" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="16" t="n">
         <v>43</v>
       </c>
-      <c r="C41" s="10" t="n">
+      <c r="C41" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D41" s="10" t="n">
+      <c r="D41" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="E41" s="10" t="n">
+      <c r="E41" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="n">
+      <c r="A42" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="16" t="n">
         <v>44</v>
       </c>
-      <c r="C42" s="10" t="n">
+      <c r="C42" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D42" s="10" t="n">
+      <c r="D42" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="E42" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="E42" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="n">
+      <c r="A43" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="16" t="n">
         <v>45</v>
       </c>
-      <c r="C43" s="10" t="n">
+      <c r="C43" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D43" s="10" t="n">
+      <c r="D43" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="E43" s="10" t="n">
+      <c r="E43" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="n">
+      <c r="A44" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B44" s="16" t="n">
         <v>46</v>
       </c>
-      <c r="C44" s="10" t="n">
+      <c r="C44" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D44" s="10" t="n">
+      <c r="D44" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="E44" s="10" t="n">
+      <c r="E44" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="17" t="s">
         <v>36</v>
       </c>
     </row>

--- a/battleworld/Excel/SkillLib_技能库.xlsx
+++ b/battleworld/Excel/SkillLib_技能库.xlsx
@@ -2474,8 +2474,8 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I46" activeCellId="0" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2690,6 +2690,12 @@
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>337784</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>337785</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -2887,6 +2893,12 @@
       <c r="G15" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <v>326721</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>326720</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2910,6 +2922,12 @@
       <c r="G16" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="H16" s="0" t="n">
+        <v>326711</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>326709</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2933,6 +2951,12 @@
       <c r="G17" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="H17" s="0" t="n">
+        <v>326713</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>326716</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2956,6 +2980,12 @@
       <c r="G18" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <v>337503</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>337502</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
@@ -2979,6 +3009,12 @@
       <c r="G19" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <v>326714</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>326717</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -3002,6 +3038,12 @@
       <c r="G20" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="H20" s="0" t="n">
+        <v>295333</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>295325</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -3025,6 +3067,12 @@
       <c r="G21" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="H21" s="0" t="n">
+        <v>326696</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>326700</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
@@ -3048,6 +3096,12 @@
       <c r="G22" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="H22" s="0" t="n">
+        <v>326694</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>326702</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
@@ -3071,6 +3125,12 @@
       <c r="G23" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="H23" s="0" t="n">
+        <v>326697</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>326692</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
@@ -3093,6 +3153,12 @@
       </c>
       <c r="G24" s="11" t="s">
         <v>31</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>326707</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>326715</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3117,6 +3183,12 @@
       <c r="G25" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>327134</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>327105</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="n">
@@ -3140,6 +3212,12 @@
       <c r="G26" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="H26" s="0" t="n">
+        <v>295346</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>295338</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="n">
@@ -3163,6 +3241,12 @@
       <c r="G27" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>327131</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>327130</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="n">
@@ -3186,6 +3270,12 @@
       <c r="G28" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="H28" s="0" t="n">
+        <v>327106</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>327109</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="n">
@@ -3209,6 +3299,12 @@
       <c r="G29" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="H29" s="0" t="n">
+        <v>327135</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>327117</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="n">
@@ -3232,6 +3328,12 @@
       <c r="G30" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="H30" s="0" t="n">
+        <v>327108</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>327113</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="n">
@@ -3255,6 +3357,12 @@
       <c r="G31" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="H31" s="0" t="n">
+        <v>327125</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>327124</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="n">
@@ -3278,6 +3386,12 @@
       <c r="G32" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="H32" s="0" t="n">
+        <v>327107</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>327102</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="n">
@@ -3301,6 +3415,12 @@
       <c r="G33" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="H33" s="0" t="n">
+        <v>327132</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>327127</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="n">
@@ -3324,6 +3444,12 @@
       <c r="G34" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>327110</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>327103</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="n">
@@ -3347,6 +3473,12 @@
       <c r="G35" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="H35" s="0" t="n">
+        <v>327092</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>327174</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="n">
@@ -3370,6 +3502,12 @@
       <c r="G36" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="H36" s="0" t="n">
+        <v>327111</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>327084</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="n">
@@ -3393,6 +3531,12 @@
       <c r="G37" s="17" t="s">
         <v>37</v>
       </c>
+      <c r="H37" s="0" t="n">
+        <v>295328</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>295327</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="n">
@@ -3416,6 +3560,12 @@
       <c r="G38" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="H38" s="0" t="n">
+        <v>327086</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>327093</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="n">
@@ -3439,6 +3589,12 @@
       <c r="G39" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="H39" s="0" t="n">
+        <v>327096</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>327095</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="n">
@@ -3462,6 +3618,12 @@
       <c r="G40" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="H40" s="0" t="n">
+        <v>327169</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>327168</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="n">
@@ -3485,6 +3647,12 @@
       <c r="G41" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="H41" s="0" t="n">
+        <v>327091</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>327082</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="n">
@@ -3508,6 +3676,12 @@
       <c r="G42" s="17" t="s">
         <v>38</v>
       </c>
+      <c r="H42" s="0" t="n">
+        <v>327154</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>327156</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="n">
@@ -3531,6 +3705,12 @@
       <c r="G43" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="H43" s="0" t="n">
+        <v>327090</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>327085</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="n">
@@ -3553,6 +3733,12 @@
       </c>
       <c r="G44" s="17" t="s">
         <v>36</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>327112</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>327098</v>
       </c>
     </row>
   </sheetData>

--- a/battleworld/Excel/SkillLib_技能库.xlsx
+++ b/battleworld/Excel/SkillLib_技能库.xlsx
@@ -2474,8 +2474,8 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I46" activeCellId="0" sqref="I46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2604,10 +2604,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="8" t="n">
-        <v>337393</v>
+        <v>350384</v>
       </c>
       <c r="I5" s="8" t="n">
-        <v>337392</v>
+        <v>350385</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,10 +2633,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="8" t="n">
-        <v>325617</v>
+        <v>350382</v>
       </c>
       <c r="I6" s="8" t="n">
-        <v>325616</v>
+        <v>350374</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,10 +2662,10 @@
         <v>21</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>325629</v>
+        <v>350371</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>325630</v>
+        <v>350370</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,11 +2690,11 @@
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>337784</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>337785</v>
+      <c r="H8" s="8" t="n">
+        <v>350383</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>350376</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,10 +2720,10 @@
         <v>23</v>
       </c>
       <c r="H9" s="8" t="n">
-        <v>325621</v>
+        <v>350389</v>
       </c>
       <c r="I9" s="8" t="n">
-        <v>325625</v>
+        <v>350381</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,10 +2749,10 @@
         <v>25</v>
       </c>
       <c r="H10" s="8" t="n">
-        <v>325628</v>
+        <v>350366</v>
       </c>
       <c r="I10" s="8" t="n">
-        <v>325622</v>
+        <v>350365</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,10 +2778,10 @@
         <v>26</v>
       </c>
       <c r="H11" s="8" t="n">
-        <v>325627</v>
+        <v>350362</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>325624</v>
+        <v>350387</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,10 +2807,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="8" t="n">
-        <v>325607</v>
+        <v>350356</v>
       </c>
       <c r="I12" s="8" t="n">
-        <v>325611</v>
+        <v>350368</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2836,10 +2836,10 @@
         <v>26</v>
       </c>
       <c r="H13" s="8" t="n">
-        <v>325618</v>
+        <v>350360</v>
       </c>
       <c r="I13" s="8" t="n">
-        <v>325609</v>
+        <v>350358</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2865,10 +2865,10 @@
         <v>25</v>
       </c>
       <c r="H14" s="8" t="n">
-        <v>325599</v>
+        <v>350372</v>
       </c>
       <c r="I14" s="8" t="n">
-        <v>325608</v>
+        <v>350364</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2893,10 +2893,10 @@
       <c r="G15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="8" t="n">
         <v>326721</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="8" t="n">
         <v>326720</v>
       </c>
     </row>
@@ -2922,10 +2922,10 @@
       <c r="G16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="8" t="n">
         <v>326711</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="8" t="n">
         <v>326709</v>
       </c>
     </row>
@@ -2951,11 +2951,11 @@
       <c r="G17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>326713</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>326716</v>
+      <c r="H17" s="8" t="n">
+        <v>350367</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <v>350341</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2980,11 +2980,11 @@
       <c r="G18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="0" t="n">
-        <v>337503</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>337502</v>
+      <c r="H18" s="8" t="n">
+        <v>350353</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>350350</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3009,10 +3009,10 @@
       <c r="G19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="8" t="n">
         <v>326714</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="8" t="n">
         <v>326717</v>
       </c>
     </row>
@@ -3038,11 +3038,11 @@
       <c r="G20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="0" t="n">
-        <v>295333</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>295325</v>
+      <c r="H20" s="8" t="n">
+        <v>327108</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>327113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3067,11 +3067,11 @@
       <c r="G21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <v>326696</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>326700</v>
+      <c r="H21" s="8" t="n">
+        <v>350357</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>350355</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3096,10 +3096,10 @@
       <c r="G22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="8" t="n">
         <v>326694</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="8" t="n">
         <v>326702</v>
       </c>
     </row>
@@ -3125,11 +3125,11 @@
       <c r="G23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="0" t="n">
-        <v>326697</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>326692</v>
+      <c r="H23" s="8" t="n">
+        <v>350343</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>350351</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3154,10 +3154,10 @@
       <c r="G24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="8" t="n">
         <v>326707</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="8" t="n">
         <v>326715</v>
       </c>
     </row>
@@ -3183,10 +3183,10 @@
       <c r="G25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="8" t="n">
         <v>327134</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="8" t="n">
         <v>327105</v>
       </c>
     </row>
@@ -3212,11 +3212,11 @@
       <c r="G26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <v>295346</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>295338</v>
+      <c r="H26" s="8" t="n">
+        <v>350349</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>350342</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3241,11 +3241,11 @@
       <c r="G27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <v>327131</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>327130</v>
+      <c r="H27" s="8" t="n">
+        <v>350344</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>350340</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3270,10 +3270,10 @@
       <c r="G28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="8" t="n">
         <v>327106</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="8" t="n">
         <v>327109</v>
       </c>
     </row>
@@ -3299,10 +3299,10 @@
       <c r="G29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="8" t="n">
         <v>327135</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="8" t="n">
         <v>327117</v>
       </c>
     </row>
@@ -3328,11 +3328,11 @@
       <c r="G30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <v>327108</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>327113</v>
+      <c r="H30" s="8" t="n">
+        <v>327107</v>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v>327102</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3357,10 +3357,10 @@
       <c r="G31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="8" t="n">
         <v>327125</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="8" t="n">
         <v>327124</v>
       </c>
     </row>
@@ -3386,11 +3386,11 @@
       <c r="G32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="0" t="n">
-        <v>327107</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>327102</v>
+      <c r="H32" s="8" t="n">
+        <v>350338</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>350339</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3415,10 +3415,10 @@
       <c r="G33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="8" t="n">
         <v>327132</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="8" t="n">
         <v>327127</v>
       </c>
     </row>
@@ -3444,10 +3444,10 @@
       <c r="G34" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="8" t="n">
         <v>327110</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="8" t="n">
         <v>327103</v>
       </c>
     </row>
@@ -3473,10 +3473,10 @@
       <c r="G35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="8" t="n">
         <v>327092</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="8" t="n">
         <v>327174</v>
       </c>
     </row>
@@ -3502,10 +3502,10 @@
       <c r="G36" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="8" t="n">
         <v>327111</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="8" t="n">
         <v>327084</v>
       </c>
     </row>
@@ -3531,11 +3531,11 @@
       <c r="G37" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="0" t="n">
-        <v>295328</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>295327</v>
+      <c r="H37" s="8" t="n">
+        <v>350411</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>350408</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3560,10 +3560,10 @@
       <c r="G38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="8" t="n">
         <v>327086</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="8" t="n">
         <v>327093</v>
       </c>
     </row>
@@ -3589,10 +3589,10 @@
       <c r="G39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="8" t="n">
         <v>327096</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="8" t="n">
         <v>327095</v>
       </c>
     </row>
@@ -3618,11 +3618,11 @@
       <c r="G40" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="0" t="n">
-        <v>327169</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>327168</v>
+      <c r="H40" s="8" t="n">
+        <v>350380</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>350388</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3647,11 +3647,11 @@
       <c r="G41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="0" t="n">
-        <v>327091</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>327082</v>
+      <c r="H41" s="8" t="n">
+        <v>350409</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>350407</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3676,10 +3676,10 @@
       <c r="G42" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="8" t="n">
         <v>327154</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42" s="8" t="n">
         <v>327156</v>
       </c>
     </row>
@@ -3705,11 +3705,11 @@
       <c r="G43" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="0" t="n">
-        <v>327090</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>327085</v>
+      <c r="H43" s="8" t="n">
+        <v>350412</v>
+      </c>
+      <c r="I43" s="8" t="n">
+        <v>350413</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3734,10 +3734,10 @@
       <c r="G44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="8" t="n">
         <v>327112</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="8" t="n">
         <v>327098</v>
       </c>
     </row>
